--- a/config_11.9/activity_ty_task_config.xlsx
+++ b/config_11.9/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="733">
   <si>
     <t>index|索引</t>
   </si>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>任务类型--normal</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -4663,7 +4659,302 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4671,6 +4962,14 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>在水果消消乐中累计消除30个西瓜</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -4683,10 +4982,31 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4702,37 +5022,122 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4744,111 +5149,19 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达300万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>252,253,254,255,256,257,258,259,260</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>261,262,263,264,265,266,267,268,269</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5482,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5552,7 +5865,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -5668,10 +5981,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -5699,13 +6012,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>200</v>
+        <v>691</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -5716,13 +6029,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>200</v>
+        <v>691</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -5733,13 +6046,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>249</v>
-      </c>
       <c r="D14" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -5750,13 +6063,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>292</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -5767,13 +6080,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>465</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>466</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -5784,13 +6097,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -5801,13 +6114,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -5818,13 +6131,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>473</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -5835,13 +6148,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -5852,13 +6165,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E21" s="65">
         <v>20</v>
@@ -5869,13 +6182,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E22" s="65">
         <v>21</v>
@@ -5886,13 +6199,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -5909,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5987,7 +6300,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6008,7 +6321,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6029,7 +6342,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6050,7 +6363,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6071,7 +6384,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6149,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6157,7 +6470,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6169,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6177,7 +6490,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6189,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6197,7 +6510,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6209,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6217,7 +6530,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6229,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6237,19 +6550,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>467</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6257,7 +6570,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6269,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6277,7 +6590,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6289,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6297,7 +6610,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6309,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6317,7 +6630,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6329,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6337,7 +6650,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6349,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6357,7 +6670,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6369,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6377,7 +6690,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6389,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -6401,11 +6714,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V252"/>
+  <dimension ref="A1:V270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A261" sqref="A253:XFD261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6449,7 +6762,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -6461,10 +6774,10 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>52</v>
@@ -7174,7 +7487,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>103</v>
@@ -7458,7 +7771,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -7509,7 +7822,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -7660,7 +7973,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -7673,7 +7986,7 @@
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -7751,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>142</v>
@@ -7925,7 +8238,7 @@
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -8205,7 +8518,7 @@
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -8289,7 +8602,7 @@
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -8373,7 +8686,7 @@
         <v>83</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -8389,19 +8702,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="49">
         <v>1</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
@@ -8417,19 +8730,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E65" s="49">
         <v>1</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J65" s="50"/>
       <c r="K65" s="50"/>
@@ -8445,19 +8758,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E66" s="49">
         <v>2</v>
       </c>
       <c r="G66" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="H66" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="I66" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J66" s="50"/>
       <c r="K66" s="50"/>
@@ -8473,19 +8786,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I67" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J67" s="50"/>
       <c r="K67" s="50"/>
@@ -8501,19 +8814,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J68" s="50"/>
       <c r="K68" s="50"/>
@@ -8529,19 +8842,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E69" s="49">
         <v>1</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J69" s="50"/>
       <c r="K69" s="50"/>
@@ -8557,19 +8870,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E70" s="49">
         <v>1</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70" s="50"/>
       <c r="K70" s="50"/>
@@ -8585,19 +8898,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="G71" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H71" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="H71" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="I71" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J71" s="41"/>
       <c r="K71" s="41"/>
@@ -8613,19 +8926,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J72" s="41"/>
       <c r="K72" s="41"/>
@@ -8641,19 +8954,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J73" s="50"/>
       <c r="K73" s="50"/>
@@ -8669,19 +8982,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J74" s="50"/>
       <c r="K74" s="50"/>
@@ -8697,19 +9010,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="G75" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H75" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="I75" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J75" s="41"/>
       <c r="K75" s="41"/>
@@ -8725,19 +9038,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J76" s="41"/>
       <c r="K76" s="41"/>
@@ -8753,19 +9066,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J77" s="41"/>
       <c r="K77" s="41"/>
@@ -8781,19 +9094,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J78" s="41"/>
       <c r="K78" s="41"/>
@@ -8809,19 +9122,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J79" s="41"/>
       <c r="K79" s="41"/>
@@ -8837,19 +9150,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J80" s="41"/>
       <c r="K80" s="41"/>
@@ -8865,19 +9178,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J81" s="41"/>
       <c r="K81" s="41"/>
@@ -8893,19 +9206,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J82" s="41"/>
       <c r="K82" s="41"/>
@@ -8921,19 +9234,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J83" s="41"/>
       <c r="K83" s="41"/>
@@ -8949,19 +9262,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J84" s="41"/>
       <c r="K84" s="41"/>
@@ -8977,19 +9290,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
+      <c r="H85" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="H85" s="41" t="s">
-        <v>244</v>
-      </c>
       <c r="I85" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J85" s="41"/>
       <c r="K85" s="41"/>
@@ -9005,19 +9318,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J86" s="41"/>
       <c r="K86" s="41"/>
@@ -9033,19 +9346,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J87" s="41"/>
       <c r="K87" s="41"/>
@@ -9061,19 +9374,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J88" s="41"/>
       <c r="K88" s="41"/>
@@ -9089,19 +9402,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J89" s="41"/>
       <c r="K89" s="41"/>
@@ -9117,19 +9430,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J90" s="41"/>
       <c r="K90" s="41"/>
@@ -9145,19 +9458,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J91" s="41"/>
       <c r="K91" s="41"/>
@@ -9173,19 +9486,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J92" s="41"/>
       <c r="K92" s="41"/>
@@ -9201,19 +9514,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J93" s="41"/>
       <c r="K93" s="41"/>
@@ -9229,19 +9542,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J94" s="41"/>
       <c r="K94" s="41"/>
@@ -9257,19 +9570,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H95" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>287</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>288</v>
       </c>
       <c r="J95" s="41"/>
       <c r="K95" s="41"/>
@@ -9285,19 +9598,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J96" s="41"/>
       <c r="K96" s="41"/>
@@ -9313,7 +9626,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -9322,13 +9635,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J97" s="41"/>
       <c r="K97" s="41"/>
@@ -9344,7 +9657,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -9353,13 +9666,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="H98" s="41" t="s">
-        <v>303</v>
-      </c>
       <c r="I98" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J98" s="41"/>
       <c r="K98" s="41"/>
@@ -9375,7 +9688,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -9384,13 +9697,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J99" s="41"/>
       <c r="K99" s="41"/>
@@ -9406,7 +9719,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -9415,13 +9728,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J100" s="41"/>
       <c r="K100" s="41"/>
@@ -9437,7 +9750,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -9446,13 +9759,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="H101" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="H101" s="41" t="s">
-        <v>437</v>
-      </c>
       <c r="I101" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J101" s="41"/>
       <c r="K101" s="41"/>
@@ -9468,7 +9781,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -9477,13 +9790,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J102" s="41"/>
       <c r="K102" s="41"/>
@@ -9499,7 +9812,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -9508,13 +9821,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="H103" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="H103" s="41" t="s">
-        <v>439</v>
-      </c>
       <c r="I103" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J103" s="41"/>
       <c r="K103" s="41"/>
@@ -9530,7 +9843,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -9539,13 +9852,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H104" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="I104" s="41" t="s">
         <v>306</v>
-      </c>
-      <c r="I104" s="41" t="s">
-        <v>307</v>
       </c>
       <c r="J104" s="41"/>
       <c r="K104" s="41"/>
@@ -9561,7 +9874,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -9570,13 +9883,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="H105" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="H105" s="41" t="s">
-        <v>441</v>
-      </c>
       <c r="I105" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J105" s="41"/>
       <c r="K105" s="41"/>
@@ -9592,19 +9905,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J106" s="41"/>
       <c r="K106" s="41"/>
@@ -9620,19 +9933,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="H107" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="H107" s="41" t="s">
-        <v>326</v>
-      </c>
       <c r="I107" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J107" s="41"/>
       <c r="K107" s="41"/>
@@ -9648,19 +9961,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J108" s="41"/>
       <c r="K108" s="41"/>
@@ -9676,19 +9989,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J109" s="41"/>
       <c r="K109" s="41"/>
@@ -9704,19 +10017,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J110" s="41"/>
       <c r="K110" s="41"/>
@@ -9732,19 +10045,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J111" s="41"/>
       <c r="K111" s="41"/>
@@ -9760,19 +10073,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J112" s="41"/>
       <c r="K112" s="41"/>
@@ -9788,19 +10101,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J113" s="41"/>
       <c r="K113" s="41"/>
@@ -9816,19 +10129,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J114" s="41"/>
       <c r="K114" s="41"/>
@@ -9844,19 +10157,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J115" s="41"/>
       <c r="K115" s="41"/>
@@ -9872,19 +10185,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J116" s="41"/>
       <c r="K116" s="41"/>
@@ -9900,19 +10213,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J117" s="41"/>
       <c r="K117" s="41"/>
@@ -9928,7 +10241,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -9937,13 +10250,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J118" s="42"/>
       <c r="K118" s="42"/>
@@ -9959,7 +10272,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -9968,13 +10281,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J119" s="42"/>
       <c r="K119" s="42"/>
@@ -9990,7 +10303,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -9999,13 +10312,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J120" s="42"/>
       <c r="K120" s="42"/>
@@ -10021,19 +10334,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
@@ -10047,19 +10360,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
@@ -10073,19 +10386,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
@@ -10101,19 +10414,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J124" s="42"/>
       <c r="K124" s="42"/>
@@ -10129,19 +10442,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J125" s="42"/>
       <c r="K125" s="42"/>
@@ -10157,19 +10470,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J126" s="42"/>
       <c r="K126" s="42"/>
@@ -10185,19 +10498,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J127" s="42"/>
       <c r="K127" s="42"/>
@@ -10213,19 +10526,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J128" s="42"/>
       <c r="K128" s="42"/>
@@ -10241,19 +10554,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J129" s="42"/>
       <c r="K129" s="42"/>
@@ -10269,19 +10582,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
@@ -10295,19 +10608,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I131" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
@@ -10321,19 +10634,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J132" s="42"/>
       <c r="K132" s="42"/>
@@ -10349,19 +10662,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J133" s="42"/>
       <c r="K133" s="42"/>
@@ -10377,19 +10690,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J134" s="42"/>
       <c r="K134" s="42"/>
@@ -10405,19 +10718,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J135" s="42"/>
       <c r="K135" s="42"/>
@@ -10433,19 +10746,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J136" s="42"/>
       <c r="K136" s="42"/>
@@ -10461,19 +10774,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J137" s="42"/>
       <c r="K137" s="42"/>
@@ -10489,19 +10802,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J138" s="42"/>
       <c r="K138" s="42"/>
@@ -10517,19 +10830,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="H139" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="H139" s="54" t="s">
-        <v>396</v>
-      </c>
       <c r="I139" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J139" s="54"/>
       <c r="K139" s="54"/>
@@ -10545,19 +10858,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E140" s="52">
         <v>1</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J140" s="54"/>
       <c r="K140" s="54"/>
@@ -10573,19 +10886,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J141" s="54"/>
       <c r="K141" s="54"/>
@@ -10601,19 +10914,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J142" s="54"/>
       <c r="K142" s="54"/>
@@ -10629,19 +10942,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J143" s="54"/>
       <c r="K143" s="54"/>
@@ -10657,19 +10970,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J144" s="54"/>
       <c r="K144" s="54"/>
@@ -10685,19 +10998,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E145" s="52">
         <v>1</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H145" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
@@ -10713,19 +11026,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="52">
+        <v>1</v>
+      </c>
+      <c r="G146" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="E146" s="52">
-        <v>1</v>
-      </c>
-      <c r="G146" s="54" t="s">
-        <v>395</v>
-      </c>
       <c r="H146" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J146" s="54"/>
       <c r="K146" s="54"/>
@@ -10741,19 +11054,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H147" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="I147" s="54" t="s">
         <v>402</v>
-      </c>
-      <c r="I147" s="54" t="s">
-        <v>403</v>
       </c>
       <c r="J147" s="54"/>
       <c r="K147" s="54"/>
@@ -10769,19 +11082,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J148" s="54"/>
       <c r="K148" s="54"/>
@@ -10797,19 +11110,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J149" s="54"/>
       <c r="K149" s="54"/>
@@ -10825,19 +11138,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J150" s="54"/>
       <c r="K150" s="54"/>
@@ -10853,19 +11166,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J151" s="54"/>
       <c r="K151" s="54"/>
@@ -10881,19 +11194,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J152" s="54"/>
       <c r="K152" s="54"/>
@@ -10909,19 +11222,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J153" s="54"/>
       <c r="K153" s="54"/>
@@ -10937,19 +11250,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J154" s="54"/>
       <c r="K154" s="54"/>
@@ -10965,19 +11278,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J155" s="54"/>
       <c r="K155" s="54"/>
@@ -10993,19 +11306,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -11021,19 +11334,19 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -11049,19 +11362,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I158" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J158" s="54"/>
       <c r="K158" s="54"/>
@@ -11077,19 +11390,19 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H159" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I159" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J159" s="54"/>
       <c r="K159" s="54"/>
@@ -11105,19 +11418,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -11133,19 +11446,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J161" s="54"/>
       <c r="K161" s="54"/>
@@ -11161,19 +11474,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J162" s="54"/>
       <c r="K162" s="54"/>
@@ -11189,19 +11502,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J163" s="54"/>
       <c r="K163" s="54"/>
@@ -11217,19 +11530,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
@@ -11245,19 +11558,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H165" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
@@ -11273,19 +11586,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J166" s="54"/>
       <c r="K166" s="54"/>
@@ -11301,19 +11614,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J167" s="54"/>
       <c r="K167" s="54"/>
@@ -11329,19 +11642,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J168" s="54"/>
       <c r="K168" s="54"/>
@@ -11354,22 +11667,22 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D169" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="H169" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="E169" s="3">
-        <v>1</v>
-      </c>
-      <c r="G169" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="H169" s="42" t="s">
-        <v>694</v>
-      </c>
       <c r="I169" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
@@ -11382,22 +11695,22 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
@@ -11410,22 +11723,22 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
@@ -11441,19 +11754,19 @@
         <v>50000000</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E172" s="3">
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
@@ -11469,19 +11782,19 @@
         <v>100000000</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E173" s="3">
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
@@ -11497,19 +11810,19 @@
         <v>200000000</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E174" s="3">
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
@@ -11525,19 +11838,19 @@
         <v>500000000</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E175" s="3">
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
@@ -11553,19 +11866,19 @@
         <v>800000000</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E176" s="3">
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I176" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J176" s="42"/>
       <c r="K176" s="42"/>
@@ -11581,19 +11894,19 @@
         <v>1000000000</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E177" s="3">
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I177" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J177" s="42"/>
       <c r="K177" s="42"/>
@@ -11609,19 +11922,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="H178" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="H178" s="42" t="s">
-        <v>482</v>
-      </c>
       <c r="J178" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K178" s="42"/>
     </row>
@@ -11636,19 +11949,19 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="H179" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="H179" s="42" t="s">
-        <v>482</v>
-      </c>
       <c r="J179" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K179" s="42"/>
     </row>
@@ -11663,19 +11976,19 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="H180" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="H180" s="42" t="s">
-        <v>482</v>
-      </c>
       <c r="J180" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K180" s="42"/>
     </row>
@@ -11690,19 +12003,19 @@
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H181" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I181" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K181" s="3">
         <v>1</v>
@@ -11719,19 +12032,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I182" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K182" s="3">
         <v>1</v>
@@ -11748,19 +12061,19 @@
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H183" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I183" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K183" s="3">
         <v>1</v>
@@ -11777,19 +12090,19 @@
         <v>1</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I184" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -11803,19 +12116,19 @@
         <v>1</v>
       </c>
       <c r="D185" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H185" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I185" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -11829,19 +12142,19 @@
         <v>5</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E186" s="3">
         <v>2</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I186" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -11855,19 +12168,19 @@
         <v>10</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E187" s="3">
         <v>3</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H187" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I187" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -11881,19 +12194,19 @@
         <v>10000</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
       </c>
       <c r="G188" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H188" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -11907,19 +12220,19 @@
         <v>50000</v>
       </c>
       <c r="D189" s="56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E189" s="3">
         <v>2</v>
       </c>
       <c r="G189" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H189" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -11933,16 +12246,16 @@
         <v>100000</v>
       </c>
       <c r="D190" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
       </c>
       <c r="G190" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H190" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I190" s="42" t="s">
         <v>67</v>
@@ -11959,16 +12272,16 @@
         <v>300000</v>
       </c>
       <c r="D191" s="56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E191" s="3">
         <v>2</v>
       </c>
       <c r="G191" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H191" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I191" s="42" t="s">
         <v>67</v>
@@ -11985,16 +12298,16 @@
         <v>500000</v>
       </c>
       <c r="D192" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E192" s="3">
         <v>3</v>
       </c>
       <c r="G192" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H192" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I192" s="42" t="s">
         <v>67</v>
@@ -12011,16 +12324,16 @@
         <v>800000</v>
       </c>
       <c r="D193" s="56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E193" s="3">
         <v>4</v>
       </c>
       <c r="G193" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I193" s="42" t="s">
         <v>67</v>
@@ -12037,16 +12350,16 @@
         <v>1000000</v>
       </c>
       <c r="D194" s="56" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E194" s="3">
         <v>5</v>
       </c>
       <c r="G194" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I194" s="42" t="s">
         <v>67</v>
@@ -12063,16 +12376,16 @@
         <v>2000000</v>
       </c>
       <c r="D195" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E195" s="3">
         <v>6</v>
       </c>
       <c r="G195" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H195" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I195" s="42" t="s">
         <v>67</v>
@@ -12089,16 +12402,16 @@
         <v>3500000</v>
       </c>
       <c r="D196" s="56" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E196" s="3">
         <v>7</v>
       </c>
       <c r="G196" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I196" s="42" t="s">
         <v>67</v>
@@ -12115,16 +12428,16 @@
         <v>9000000</v>
       </c>
       <c r="D197" s="56" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E197" s="3">
         <v>8</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H197" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I197" s="42" t="s">
         <v>67</v>
@@ -12141,16 +12454,16 @@
         <v>18000000</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E198" s="3">
         <v>9</v>
       </c>
       <c r="G198" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I198" s="42" t="s">
         <v>67</v>
@@ -12167,16 +12480,16 @@
         <v>30000000</v>
       </c>
       <c r="D199" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E199" s="3">
         <v>10</v>
       </c>
       <c r="G199" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H199" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I199" s="42" t="s">
         <v>67</v>
@@ -12193,16 +12506,16 @@
         <v>50000000</v>
       </c>
       <c r="D200" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E200" s="3">
         <v>11</v>
       </c>
       <c r="G200" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I200" s="42" t="s">
         <v>67</v>
@@ -12219,16 +12532,16 @@
         <v>90000000</v>
       </c>
       <c r="D201" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E201" s="3">
         <v>12</v>
       </c>
       <c r="G201" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H201" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I201" s="42" t="s">
         <v>67</v>
@@ -12245,19 +12558,19 @@
         <v>150000000</v>
       </c>
       <c r="D202" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E202" s="3">
         <v>13</v>
       </c>
       <c r="G202" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H202" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I202" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -12271,19 +12584,19 @@
         <v>250000000</v>
       </c>
       <c r="D203" s="56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E203" s="3">
         <v>14</v>
       </c>
       <c r="G203" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I203" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -12297,19 +12610,19 @@
         <v>450000000</v>
       </c>
       <c r="D204" s="56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E204" s="3">
         <v>15</v>
       </c>
       <c r="G204" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I204" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -12323,19 +12636,19 @@
         <v>750000000</v>
       </c>
       <c r="D205" s="56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E205" s="3">
         <v>16</v>
       </c>
       <c r="G205" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H205" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I205" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -12349,19 +12662,19 @@
         <v>1000000000</v>
       </c>
       <c r="D206" s="56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E206" s="3">
         <v>17</v>
       </c>
       <c r="G206" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H206" s="42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I206" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -12375,19 +12688,19 @@
         <v>1500000000</v>
       </c>
       <c r="D207" s="56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E207" s="3">
         <v>18</v>
       </c>
       <c r="G207" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H207" s="42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I207" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -12401,19 +12714,19 @@
         <v>3000000000</v>
       </c>
       <c r="D208" s="56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E208" s="3">
         <v>19</v>
       </c>
       <c r="G208" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H208" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I208" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -12427,19 +12740,19 @@
         <v>5000000000</v>
       </c>
       <c r="D209" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E209" s="3">
         <v>20</v>
       </c>
       <c r="G209" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H209" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I209" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -12453,19 +12766,19 @@
         <v>10000000000</v>
       </c>
       <c r="D210" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E210" s="3">
         <v>21</v>
       </c>
       <c r="G210" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I210" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -12479,19 +12792,19 @@
         <v>30000000000</v>
       </c>
       <c r="D211" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E211" s="3">
         <v>22</v>
       </c>
       <c r="G211" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H211" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I211" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -12505,19 +12818,19 @@
         <v>60000000000</v>
       </c>
       <c r="D212" s="56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E212" s="3">
         <v>23</v>
       </c>
       <c r="G212" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H212" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I212" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12528,22 +12841,22 @@
         <v>30034</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D213" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E213" s="3">
         <v>24</v>
       </c>
       <c r="G213" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H213" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I213" s="42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -12554,22 +12867,22 @@
         <v>30034</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D214" s="56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E214" s="3">
         <v>25</v>
       </c>
       <c r="G214" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H214" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I214" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -12580,22 +12893,22 @@
         <v>30034</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D215" s="56" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E215" s="3">
         <v>26</v>
       </c>
       <c r="G215" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H215" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -12606,10 +12919,10 @@
         <v>30035</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D216" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -12618,13 +12931,13 @@
         <v>1</v>
       </c>
       <c r="G216" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H216" s="42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I216" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -12635,10 +12948,10 @@
         <v>30035</v>
       </c>
       <c r="C217" s="64" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D217" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -12647,13 +12960,13 @@
         <v>1</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H217" s="42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -12664,10 +12977,10 @@
         <v>30035</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D218" s="56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E218" s="3">
         <v>3</v>
@@ -12676,13 +12989,13 @@
         <v>1</v>
       </c>
       <c r="G218" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H218" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -12693,10 +13006,10 @@
         <v>30035</v>
       </c>
       <c r="C219" s="64" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D219" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E219" s="3">
         <v>4</v>
@@ -12705,13 +13018,13 @@
         <v>1</v>
       </c>
       <c r="G219" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H219" s="42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -12722,10 +13035,10 @@
         <v>30035</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D220" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E220" s="3">
         <v>5</v>
@@ -12734,13 +13047,13 @@
         <v>1</v>
       </c>
       <c r="G220" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H220" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -12751,10 +13064,10 @@
         <v>30035</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D221" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E221" s="3">
         <v>6</v>
@@ -12763,13 +13076,13 @@
         <v>1</v>
       </c>
       <c r="G221" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H221" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I221" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -12780,10 +13093,10 @@
         <v>30035</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D222" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E222" s="3">
         <v>7</v>
@@ -12792,13 +13105,13 @@
         <v>1</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H222" s="42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I222" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -12809,10 +13122,10 @@
         <v>30035</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E223" s="3">
         <v>8</v>
@@ -12821,13 +13134,13 @@
         <v>1</v>
       </c>
       <c r="G223" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H223" s="42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I223" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -12838,10 +13151,10 @@
         <v>30035</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E224" s="3">
         <v>9</v>
@@ -12850,13 +13163,13 @@
         <v>1</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H224" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I224" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -12867,10 +13180,10 @@
         <v>30035</v>
       </c>
       <c r="C225" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E225" s="3">
         <v>10</v>
@@ -12879,13 +13192,13 @@
         <v>1</v>
       </c>
       <c r="G225" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H225" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I225" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -12896,10 +13209,10 @@
         <v>30035</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E226" s="3">
         <v>11</v>
@@ -12908,13 +13221,13 @@
         <v>1</v>
       </c>
       <c r="G226" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H226" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I226" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -12925,10 +13238,10 @@
         <v>30035</v>
       </c>
       <c r="C227" s="64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E227" s="3">
         <v>12</v>
@@ -12937,13 +13250,13 @@
         <v>1</v>
       </c>
       <c r="G227" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H227" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I227" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -12954,10 +13267,10 @@
         <v>30035</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E228" s="3">
         <v>13</v>
@@ -12966,13 +13279,13 @@
         <v>1</v>
       </c>
       <c r="G228" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H228" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I228" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -12983,10 +13296,10 @@
         <v>30035</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E229" s="3">
         <v>14</v>
@@ -12995,13 +13308,13 @@
         <v>1</v>
       </c>
       <c r="G229" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H229" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I229" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -13012,10 +13325,10 @@
         <v>30035</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E230" s="3">
         <v>15</v>
@@ -13024,13 +13337,13 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="H230" s="42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -13041,22 +13354,22 @@
         <v>1000788</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D231" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E231" s="3">
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -13067,22 +13380,22 @@
         <v>1000789</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I232" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -13093,22 +13406,22 @@
         <v>1000790</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E233" s="3">
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -13119,22 +13432,22 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E234" s="3">
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -13145,22 +13458,22 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E235" s="3">
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -13171,22 +13484,22 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E236" s="3">
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -13197,22 +13510,22 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -13223,22 +13536,22 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -13249,22 +13562,22 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -13275,22 +13588,22 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -13301,22 +13614,22 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>668</v>
+        <v>727</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -13327,22 +13640,22 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E242" s="3">
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -13353,22 +13666,22 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E243" s="3">
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I243" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -13379,22 +13692,22 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -13405,22 +13718,22 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -13431,22 +13744,22 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13457,22 +13770,22 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13483,22 +13796,22 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H248" s="42" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="I248" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13509,22 +13822,22 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -13535,22 +13848,22 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -13561,22 +13874,22 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -13587,22 +13900,490 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D252" s="42" t="s">
-        <v>646</v>
+        <v>202</v>
       </c>
       <c r="E252" s="3">
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>669</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1000801</v>
+      </c>
+      <c r="C253" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="D253" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1</v>
+      </c>
+      <c r="G253" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H253" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1000802</v>
+      </c>
+      <c r="C254" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="D254" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G254" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="H254" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="I254" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C255" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1</v>
+      </c>
+      <c r="G255" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H255" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="I255" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C256" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="D256" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E256" s="3">
+        <v>2</v>
+      </c>
+      <c r="G256" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H256" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="I256" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C257" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="D257" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E257" s="3">
+        <v>3</v>
+      </c>
+      <c r="G257" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H257" s="42" t="s">
+        <v>721</v>
+      </c>
+      <c r="I257" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C258" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="D258" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="E258" s="3">
+        <v>4</v>
+      </c>
+      <c r="G258" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H258" s="42" t="s">
+        <v>722</v>
+      </c>
+      <c r="I258" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C259" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="D259" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="E259" s="3">
+        <v>5</v>
+      </c>
+      <c r="G259" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H259" s="42" t="s">
+        <v>723</v>
+      </c>
+      <c r="I259" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1000803</v>
+      </c>
+      <c r="C260" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="D260" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="E260" s="3">
+        <v>6</v>
+      </c>
+      <c r="G260" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="H260" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="I260" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>260</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1000804</v>
+      </c>
+      <c r="C261" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="D261" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="H261" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="I261" s="42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>261</v>
+      </c>
+      <c r="B262" s="13">
+        <v>1000805</v>
+      </c>
+      <c r="C262" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="D262" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="G262" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H262" s="42" t="s">
+        <v>717</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+      <c r="B263" s="13">
+        <v>1000806</v>
+      </c>
+      <c r="C263" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="D263" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G263" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H263" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="I263" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+      <c r="B264" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C264" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="D264" s="42" t="s">
+        <v>705</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="G264" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H264" s="42" t="s">
+        <v>719</v>
+      </c>
+      <c r="I264" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+      <c r="B265" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C265" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="D265" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2</v>
+      </c>
+      <c r="G265" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H265" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="I265" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+      <c r="B266" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C266" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="D266" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="E266" s="3">
+        <v>3</v>
+      </c>
+      <c r="G266" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H266" s="42" t="s">
+        <v>721</v>
+      </c>
+      <c r="I266" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+      <c r="B267" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C267" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="D267" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="E267" s="3">
+        <v>4</v>
+      </c>
+      <c r="G267" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H267" s="42" t="s">
+        <v>722</v>
+      </c>
+      <c r="I267" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+      <c r="B268" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C268" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="D268" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="E268" s="3">
+        <v>5</v>
+      </c>
+      <c r="G268" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H268" s="42" t="s">
+        <v>723</v>
+      </c>
+      <c r="I268" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>268</v>
+      </c>
+      <c r="B269" s="13">
+        <v>1000807</v>
+      </c>
+      <c r="C269" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="D269" s="42" t="s">
+        <v>710</v>
+      </c>
+      <c r="E269" s="3">
+        <v>6</v>
+      </c>
+      <c r="G269" s="42" t="s">
+        <v>714</v>
+      </c>
+      <c r="H269" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="I269" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>269</v>
+      </c>
+      <c r="B270" s="13">
+        <v>1000808</v>
+      </c>
+      <c r="C270" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="D270" s="42" t="s">
+        <v>712</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="H270" s="42" t="s">
+        <v>724</v>
+      </c>
+      <c r="I270" s="42" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
